--- a/df_list_20250414.xlsx
+++ b/df_list_20250414.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="283">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -373,16 +373,509 @@
   </si>
   <si>
     <t>「함양군 스마트 경로당 구축사업」제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>보령, 태안지역 위임국도 포장도 보수공사 공법 선정 기술제안서 제출 안내 정정 공고</t>
+  </si>
+  <si>
+    <t>A017</t>
+  </si>
+  <si>
+    <t>서울특별시건설신기술공법선정위원회</t>
+  </si>
+  <si>
+    <t>https://news.seoul.go.kr/citybuild/archives/516614#list/1</t>
+  </si>
+  <si>
+    <t>신기술·특허공법 선정 제안서 제출 안내 공고(고척로52길 116 주변 외 2개소 도로 열선 설치)</t>
+  </si>
+  <si>
+    <t>A018</t>
+  </si>
+  <si>
+    <t>부산광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.busan.go.kr/nbgosi?curPage=1</t>
+  </si>
+  <si>
+    <t>제안서 평가위원 후보자 모집공고 (25년 버스정보관리시스템(BIMS) 추가 및 개선사업)</t>
+  </si>
+  <si>
+    <t>A019</t>
+  </si>
+  <si>
+    <t>대구광역시고시공고</t>
+  </si>
+  <si>
+    <t>https://www.daegu.go.kr/index.do?menu_id=00940170</t>
+  </si>
+  <si>
+    <t>제안서 평가 결과 공개(대구도서관 네트워크 시스템 구축)</t>
+  </si>
+  <si>
+    <t>A025</t>
+  </si>
+  <si>
+    <t>경기고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=2</t>
+  </si>
+  <si>
+    <t>「경기도 기후·환경·생태 그림책 원화 전시 및 도슨트 교육 운영 용역」의 제안서 평가위원 모집</t>
+  </si>
+  <si>
+    <t>https://www.gg.go.kr/bbs/board.do?bsIdx=469&amp;menuId=1547#page=4</t>
+  </si>
+  <si>
+    <t>「경기도 공동주택관리규약 준칙 심의위원회」위원 공개모집 공고</t>
+  </si>
+  <si>
+    <t>에코팜랜드 말산업 문화체험공간 조성 용역(1차) 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.chungbuk.go.kr/www/selectGosiPblancList.do?key=422&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A031</t>
+  </si>
+  <si>
+    <t>경북고시공고</t>
+  </si>
+  <si>
+    <t>https://www.gb.go.kr/Main/page.do?mnu_uid=6789&amp;LARGE_CODE=720&amp;MEDIUM_CODE=50&amp;SMALL_CODE=10&amp;SMALL_CODE2=30&amp;Start=0</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회 예비평가위원 모집 공고(2025년도 여객자동차운수사업자 경영 및 서비스평가 용역)</t>
+  </si>
+  <si>
+    <t>제안서평가위원회 예비평가위원 모집 공고(외국인기업 투자유치 전략수립 용역)</t>
+  </si>
+  <si>
+    <t>『솔잎혹파리 천적의 기생 구조 및 형태학적 특성 연구 용역』 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>&amp;#65378;경상남도 지역 기록화&amp;#65379; 제안서 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A041</t>
+  </si>
+  <si>
+    <t>경기도_용인시처인구</t>
+  </si>
+  <si>
+    <t>https://eminwon.yongin.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=10&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;list_gubun=&amp;epcCheck=Y;</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회 후보자 모집 공고[2025년 용인시 미전산화 하수도시설...</t>
+  </si>
+  <si>
+    <t>A050</t>
+  </si>
+  <si>
+    <t>경기도_부천시</t>
+  </si>
+  <si>
+    <t>https://eminwon.bucheon.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?epcCheck=Y</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회 평가결과 공개(중동 1기 신도시 재정비 마스터플랜 수립...</t>
+  </si>
+  <si>
+    <t>A051</t>
+  </si>
+  <si>
+    <t>경기도_성남시</t>
+  </si>
+  <si>
+    <t>https://eminwon.seongnam.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>「2025년 탄천 이동식 물놀이장(야탑, 정자) 운영관리 용역」제안서 평...</t>
+  </si>
+  <si>
+    <t>A063</t>
+  </si>
+  <si>
+    <t>경기도_오산시</t>
+  </si>
+  <si>
+    <t>https://www.osan.go.kr/portal/saeol/gosi/list.do?mId=0302010000</t>
+  </si>
+  <si>
+    <t>2025년 오산시 주민자치위원 연수 용역 제안서 평가위원회 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>A068</t>
+  </si>
+  <si>
+    <t>경기도_평택시</t>
+  </si>
+  <si>
+    <t>https://www.pyeongtaek.go.kr/pyeongtaek/saeol/gosiList.do?seCode=01&amp;mId=0401020000</t>
+  </si>
+  <si>
+    <t>2026학년도 평택시 대학입시박람회 및 설명회 운영 용역 제안서 평가위원(후보자)모집 공고</t>
+  </si>
+  <si>
+    <t>A069</t>
+  </si>
+  <si>
+    <t>경기도_포천시</t>
+  </si>
+  <si>
+    <t>https://www.pocheon.go.kr/www/selectEminwonList.do?key=12563&amp;notAncmtSeCode=01&amp;pageUnit=90</t>
+  </si>
+  <si>
+    <t>포천시 공고 제2025-1106호2025년 제8회 포천시건축위원회 심의 주요결과 공고</t>
+  </si>
+  <si>
+    <t>포천시 공고 제2025-1099호「포천역사문화관 소장유물 아카이브 용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A071</t>
+  </si>
+  <si>
+    <t>경기도_화성시</t>
+  </si>
+  <si>
+    <t>https://eminwon.hscity.go.kr/emwp/gov/mogaha/ntis/web/ofr/action/OfrAction.do?pageIndex=&amp;jndinm=OfrNotAncmtEJB&amp;context=NTIS&amp;method=selectListOfrNotAncmt&amp;methodnm=selectListOfrNotAncmtHomepage&amp;not_ancmt_mgt_no=&amp;homepage_pbs_yn=Y&amp;subCheck=Y&amp;ofr_pageSize=80&amp;not_ancmt_se_code=01%2C04&amp;not_ancmt_sj=&amp;not_ancmt_cn=&amp;dept_nm=&amp;cgg_code=&amp;not_ancmt_reg_no=&amp;cha_dep_code_nm=&amp;yyyy=2024&amp;Key=B_Subject&amp;temp=</t>
+  </si>
+  <si>
+    <t>「제5회 별별화성 Awards」 “화성왔성” 홍보 공모전 운영 용역 제안...</t>
+  </si>
+  <si>
+    <t>https://www.gp.go.kr/portal/selectGosiList.do?key=2148&amp;not_ancmt_se_code=01&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>2025년 가평영상미디어센터 미디어교육 및 체험장비 제작설치 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>A076</t>
+  </si>
+  <si>
+    <t>강원도_동해시</t>
+  </si>
+  <si>
+    <t>https://www.dh.go.kr/www/selectBbsNttList.do?bbsNo=87&amp;key=478&amp;recordCountPerPage=90</t>
+  </si>
+  <si>
+    <t>2025년 동해시 계약심의위원회 위원 공개 모집</t>
+  </si>
+  <si>
+    <t>A079</t>
+  </si>
+  <si>
+    <t>강원도_원주시</t>
+  </si>
+  <si>
+    <t>https://www.wonju.go.kr/www/selectBbsNttList.do?bbsNo=140&amp;key=216&amp;pageUnit=40</t>
+  </si>
+  <si>
+    <t>「원주첨단의료복합단지 조성 기본계획 수립 연구용역」 기술제안서 평가결과 공개NEW</t>
+  </si>
+  <si>
+    <t>A080</t>
+  </si>
+  <si>
+    <t>강원도_춘천시</t>
+  </si>
+  <si>
+    <t>https://www.chuncheon.go.kr/cityhall/administrative-info/notice-info/notice-announcement/?pageIndex=1</t>
+  </si>
+  <si>
+    <t>2025년 춘천시 공유재산심의회 위촉직위원 모집 공고</t>
+  </si>
+  <si>
+    <t>A092</t>
+  </si>
+  <si>
+    <t>강원도_횡성군</t>
+  </si>
+  <si>
+    <t>https://www.hsg.go.kr/www/selectBbsNttList.do?bbsNo=65&amp;key=821&amp;pageIndex=1</t>
+  </si>
+  <si>
+    <t>「월현지구 재해위험개선지구 정비사업」 신기술·특정공법 기술제안서 정성적평가 결과 공고</t>
+  </si>
+  <si>
+    <t>A094</t>
+  </si>
+  <si>
+    <t>충청도_청주시</t>
+  </si>
+  <si>
+    <t>https://www.cheongju.go.kr/www/selectEminwonNoticeList.do?key=23366&amp;notAncmtSeCd=&amp;searchCnd=all&amp;searchKrwd=&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>풍년로 일원 오수관로 정비공사 선정을 위한 공법선정심의회 심의위원 명단 및 정성적 평가 결과 공고</t>
+  </si>
+  <si>
+    <t>정하동 새뜰마을사업 마스터플랜 수립 및 실시설계용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>단양군 농촌공간 재구조화 및 재생 기본계획 수립 용역' 제안서 평가 결...</t>
+  </si>
+  <si>
+    <t>A098</t>
+  </si>
+  <si>
+    <t>충청도_청주시_상당구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04&amp;yyyy=2020</t>
+  </si>
+  <si>
+    <t>정하동 새뜰마을사업 마스터플랜 수립 및 실시설계용역 제안서 평가위원(후보...</t>
+  </si>
+  <si>
+    <t>풍년로 일원 오수관로 정비공사 선정을 위한 공법선정심의회 심의위원 명단 ...</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>충청도_청주시_흥덕구</t>
+  </si>
+  <si>
+    <t>https://eminwon.cheongju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,05&amp;cha_dep_code_nm=57300220000,57300210000,57300040000,57300230000,57300060000,57300070000,57300240000,57300090000,57102000000&amp;yyyy=2018</t>
+  </si>
+  <si>
+    <t>A109</t>
+  </si>
+  <si>
+    <t>충청도_논산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.nonsan21.net/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,05,04,06</t>
+  </si>
+  <si>
+    <t>2025년 제3회 경관위원회 심의결과 홈페이지 공개</t>
+  </si>
+  <si>
+    <t>A113</t>
+  </si>
+  <si>
+    <t>충청도_아산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.asan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,04,06,07&amp;ofr_pageSize=10&amp;epcCheck=Y</t>
+  </si>
+  <si>
+    <t>「경찰교육 관련기관 유치 전략 및 효과분석 연구용역」 제안서 평가위원(후...</t>
+  </si>
+  <si>
+    <t>「2025년 아산시 자연재위험개선지구 정비사업」 신기술, 특허공법 기술제...</t>
+  </si>
+  <si>
+    <t>2025년 아산시 자연재해위험개선지구 정비사업 신기술, 특허공법 기술제안...</t>
+  </si>
+  <si>
+    <t>제8회 천안시 건축위원회[건축물해체전문위원회] 건축물해체심의 주요결과 공...</t>
+  </si>
+  <si>
+    <t>A115</t>
+  </si>
+  <si>
+    <t>충청도_금산군</t>
+  </si>
+  <si>
+    <t>https://www.geumsan.go.kr/kr/html/sub03/030302.html?GotoPage=1</t>
+  </si>
+  <si>
+    <t>[일반공고]「2025년 금산군 자체 클라우드 구축·전환 사업」 제안서 평가위원(후보자) 공개 모집 공고</t>
+  </si>
+  <si>
+    <t>「군산시 지방재정계획심의위원회 설치 운영 조례」일부개정조례안 입법예고</t>
+  </si>
+  <si>
+    <t>『2025 군산 국가유산 야행』행사대행 용역 제안서 평가위원(후보자) 모...</t>
+  </si>
+  <si>
+    <t>A125</t>
+  </si>
+  <si>
+    <t>전라도_익산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.iksan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05&amp;cpath=</t>
+  </si>
+  <si>
+    <t>왕궁면 기초생활거점조성사업(2단계) 지역역량강화용역 제안서(예비) 평가위...</t>
+  </si>
+  <si>
+    <t>A127</t>
+  </si>
+  <si>
+    <t>전라도_정읍시</t>
+  </si>
+  <si>
+    <t>http://eminwon.jeongeup.go.kr/emwp/jsp/ofr/OfrNotAncmtL.jsp?not_ancmt_se_code=01,02,03,04,05,06,07</t>
+  </si>
+  <si>
+    <t>정읍시 매장유산 유존지역 정보 고도화 사업 용역 제안서 평가위원회 세부평...</t>
+  </si>
+  <si>
+    <t>A129</t>
+  </si>
+  <si>
+    <t>전라도_무주군</t>
+  </si>
+  <si>
+    <t>https://eminwon.muju.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04&amp;subCheck=Y</t>
+  </si>
+  <si>
+    <t>미생물배양센터 노후 미생물배양기 교체 구입 제안서 평가위원(후보자) 모집...</t>
+  </si>
+  <si>
+    <t>A145</t>
+  </si>
+  <si>
+    <t>전라도_담양군</t>
+  </si>
+  <si>
+    <t>https://www.damyang.go.kr/eminwon/searchList?domainId=DOM_0000001&amp;contentsSid=2&amp;menuCd=DOM_000000190001002001&amp;boardType=special&amp;listType=01</t>
+  </si>
+  <si>
+    <t>2025 담빛청소년 환경지킴 실생활 idea 제안공모 공고</t>
+  </si>
+  <si>
+    <t>A149</t>
+  </si>
+  <si>
+    <t>전라도_영광군</t>
+  </si>
+  <si>
+    <t>https://www.yeonggwang.go.kr/bbs/?b_id=gosigonggo&amp;site=headquarter_new&amp;mn=9059&amp;offset=0</t>
+  </si>
+  <si>
+    <t>전라남도 3대 생활체육대축전 공개행사 연출대행 용역 제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>참조기 양식산업화센터 건립사업 제안서 평가위원(후보자) 모집공고</t>
+  </si>
+  <si>
+    <t>A150</t>
+  </si>
+  <si>
+    <t>전라도_영암군</t>
+  </si>
+  <si>
+    <t>https://www.yeongam.go.kr/home/www/open_information/yeongam_news/announcement/yeongam.go?page=1</t>
+  </si>
+  <si>
+    <t>2025년 영암군 참여예산 제안사업 공고</t>
+  </si>
+  <si>
+    <t>「인왕동 문화공원 선덕여왕 동상 건립사업」 제안서 평가위원(후보자) 모집(취소) 공고</t>
+  </si>
+  <si>
+    <t>https://www.gyeongju.go.kr/open_content/ko/page.do?mnu_uid=423&amp;pageNo=2</t>
+  </si>
+  <si>
+    <t>A162</t>
+  </si>
+  <si>
+    <t>경상도_문경시</t>
+  </si>
+  <si>
+    <t>https://www.gbmg.go.kr/portal/saeol/gosi/list.do?mId=0301060000</t>
+  </si>
+  <si>
+    <t>「2025년 문경시 고등학생 해외명문대학견학 위탁용역」제안서 평가위원(후보자) 모집공고</t>
+  </si>
+  <si>
+    <t>A163</t>
+  </si>
+  <si>
+    <t>경상도_상주시</t>
+  </si>
+  <si>
+    <t>https://www.sangju.go.kr/page/10297/10606.tc?mn=10297&amp;recordCountPerPage=100</t>
+  </si>
+  <si>
+    <t>상주 공검지 종합정비계획 수립 용역 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A165</t>
+  </si>
+  <si>
+    <t>경상도_영주시</t>
+  </si>
+  <si>
+    <t>https://www.yeongju.go.kr/open_content/main/page.do?mnu_uid=10619&amp;boardType=notice&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>영주시 농촌신활력플러스사업 액션그룹(사회적 경제기업 등) 및 주민활동가 발굴육성 용역 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>「흥해 도시재생사업 종합성과평가 수행 용역」 제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A174</t>
+  </si>
+  <si>
+    <t>경상도_예천군</t>
+  </si>
+  <si>
+    <t>https://www.ycg.kr/open.content/ko/administrative/news/announcement/?p=1</t>
+  </si>
+  <si>
+    <t>예천군 퍼포먼스 그룹 ‘애이요(愛伊要) 청단’ 제작 제안서 평과결과 공고</t>
+  </si>
+  <si>
+    <t>A178</t>
+  </si>
+  <si>
+    <t>경상도_청송군</t>
+  </si>
+  <si>
+    <t>https://www.cs.go.kr/news/00002679/00006203.web</t>
+  </si>
+  <si>
+    <t>2025년 가공품 특허출원기술 이전 농가 모집 재공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>석전리 도시계획도로 옹벽 디자인 개선사업 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>경상도_고성군</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=1</t>
+  </si>
+  <si>
+    <t>「고성 역사문화권 정비시행 예비계획 수립 용역」 제안서 평가위원(후보자) 공개모집 공고</t>
+  </si>
+  <si>
+    <t>https://www.goseong.go.kr/board/list.goseong?boardId=BBS_0000015&amp;menuCd=DOM_000000103001014000&amp;contentsSid=29&amp;cpath=&amp;startPage=2</t>
+  </si>
+  <si>
+    <t>고성군 청년정책사업 제안 공모 공고</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -404,6 +897,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -434,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -444,6 +941,18 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1505,89 +2014,1666 @@
         <v>45761.53511574074</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E58" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F58" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E59" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F59" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E60" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F65" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E66" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F66" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F67" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E69" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F70" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F72" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E73" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F73" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E75" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F75" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F76" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F77" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F78" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E79" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F79" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E80" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F80" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E81" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F81" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F82" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E84" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E85" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E86" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F89" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F90" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E91" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F91" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E92" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F92" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F93" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F94" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E95" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F95" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F96" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E97" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F97" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F99" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E100" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F100" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E102" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F102" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E103" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F103" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F104" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E105" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F105" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F107" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E108" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F108" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E109" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F109" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F110" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F111" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E112" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F112" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E113" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E114" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F114" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E115" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F115" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E117" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E118" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E119" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F119" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E120" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F120" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E121" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F121" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E122" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F122" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E123" s="7">
+        <v>45762.0</v>
+      </c>
+      <c r="F123" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E124" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F124" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E125" s="7">
+        <v>45761.0</v>
+      </c>
+      <c r="F125" s="7">
+        <v>45762.08849537037</v>
+      </c>
+    </row>
     <row r="126" ht="15.75" customHeight="1"/>
     <row r="127" ht="15.75" customHeight="1"/>
     <row r="128" ht="15.75" customHeight="1"/>
@@ -2464,9 +4550,94 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C43"/>
+    <hyperlink r:id="rId2" ref="C44"/>
+    <hyperlink r:id="rId3" location="list/1" ref="C45"/>
+    <hyperlink r:id="rId4" ref="C46"/>
+    <hyperlink r:id="rId5" ref="C47"/>
+    <hyperlink r:id="rId6" ref="C48"/>
+    <hyperlink r:id="rId7" location="page=2" ref="C49"/>
+    <hyperlink r:id="rId8" location="page=4" ref="C50"/>
+    <hyperlink r:id="rId9" location="page=4" ref="C51"/>
+    <hyperlink r:id="rId10" ref="C52"/>
+    <hyperlink r:id="rId11" ref="C53"/>
+    <hyperlink r:id="rId12" ref="C54"/>
+    <hyperlink r:id="rId13" ref="C55"/>
+    <hyperlink r:id="rId14" ref="C56"/>
+    <hyperlink r:id="rId15" ref="C57"/>
+    <hyperlink r:id="rId16" ref="C58"/>
+    <hyperlink r:id="rId17" ref="C59"/>
+    <hyperlink r:id="rId18" ref="C60"/>
+    <hyperlink r:id="rId19" ref="C61"/>
+    <hyperlink r:id="rId20" ref="C62"/>
+    <hyperlink r:id="rId21" ref="C63"/>
+    <hyperlink r:id="rId22" ref="C64"/>
+    <hyperlink r:id="rId23" ref="C65"/>
+    <hyperlink r:id="rId24" ref="C66"/>
+    <hyperlink r:id="rId25" ref="C67"/>
+    <hyperlink r:id="rId26" ref="C68"/>
+    <hyperlink r:id="rId27" ref="C69"/>
+    <hyperlink r:id="rId28" ref="C70"/>
+    <hyperlink r:id="rId29" ref="C71"/>
+    <hyperlink r:id="rId30" ref="C72"/>
+    <hyperlink r:id="rId31" ref="C73"/>
+    <hyperlink r:id="rId32" ref="C74"/>
+    <hyperlink r:id="rId33" ref="C75"/>
+    <hyperlink r:id="rId34" ref="C76"/>
+    <hyperlink r:id="rId35" ref="C77"/>
+    <hyperlink r:id="rId36" ref="C78"/>
+    <hyperlink r:id="rId37" ref="C79"/>
+    <hyperlink r:id="rId38" ref="C80"/>
+    <hyperlink r:id="rId39" ref="C81"/>
+    <hyperlink r:id="rId40" ref="C82"/>
+    <hyperlink r:id="rId41" ref="C83"/>
+    <hyperlink r:id="rId42" ref="C84"/>
+    <hyperlink r:id="rId43" ref="C85"/>
+    <hyperlink r:id="rId44" ref="C86"/>
+    <hyperlink r:id="rId45" ref="C87"/>
+    <hyperlink r:id="rId46" ref="C88"/>
+    <hyperlink r:id="rId47" ref="C89"/>
+    <hyperlink r:id="rId48" ref="C90"/>
+    <hyperlink r:id="rId49" ref="C91"/>
+    <hyperlink r:id="rId50" ref="C92"/>
+    <hyperlink r:id="rId51" ref="C93"/>
+    <hyperlink r:id="rId52" ref="C94"/>
+    <hyperlink r:id="rId53" ref="C95"/>
+    <hyperlink r:id="rId54" ref="C96"/>
+    <hyperlink r:id="rId55" ref="C97"/>
+    <hyperlink r:id="rId56" ref="C98"/>
+    <hyperlink r:id="rId57" ref="C99"/>
+    <hyperlink r:id="rId58" ref="C100"/>
+    <hyperlink r:id="rId59" ref="C101"/>
+    <hyperlink r:id="rId60" ref="C102"/>
+    <hyperlink r:id="rId61" ref="C103"/>
+    <hyperlink r:id="rId62" ref="C104"/>
+    <hyperlink r:id="rId63" ref="C105"/>
+    <hyperlink r:id="rId64" ref="C106"/>
+    <hyperlink r:id="rId65" ref="C107"/>
+    <hyperlink r:id="rId66" ref="C108"/>
+    <hyperlink r:id="rId67" ref="C109"/>
+    <hyperlink r:id="rId68" ref="C110"/>
+    <hyperlink r:id="rId69" ref="C111"/>
+    <hyperlink r:id="rId70" ref="C112"/>
+    <hyperlink r:id="rId71" ref="C113"/>
+    <hyperlink r:id="rId72" ref="C114"/>
+    <hyperlink r:id="rId73" ref="C115"/>
+    <hyperlink r:id="rId74" ref="C116"/>
+    <hyperlink r:id="rId75" ref="C117"/>
+    <hyperlink r:id="rId76" ref="C118"/>
+    <hyperlink r:id="rId77" ref="C119"/>
+    <hyperlink r:id="rId78" ref="C120"/>
+    <hyperlink r:id="rId79" ref="C121"/>
+    <hyperlink r:id="rId80" ref="C122"/>
+    <hyperlink r:id="rId81" ref="C123"/>
+    <hyperlink r:id="rId82" ref="C124"/>
+    <hyperlink r:id="rId83" ref="C125"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId84"/>
 </worksheet>
 </file>